--- a/Resources/素材说明.xlsx
+++ b/Resources/素材说明.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
     <sheet name="interface" sheetId="3" r:id="rId2"/>
-    <sheet name="barinfo" sheetId="4" r:id="rId3"/>
-    <sheet name="public" sheetId="2" r:id="rId4"/>
+    <sheet name="sphere" sheetId="5" r:id="rId3"/>
+    <sheet name="cast" sheetId="6" r:id="rId4"/>
+    <sheet name="tower" sheetId="7" r:id="rId5"/>
+    <sheet name="barinfo" sheetId="4" r:id="rId6"/>
+    <sheet name="public" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="240">
   <si>
     <t>组成部份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +617,394 @@
       </rPr>
       <t>选中时循环播放对应的动作</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火+冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火+电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火+石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电+石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰+电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰+石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平路时死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直路时死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选sphere的中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire/ice/levin/stonesphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit被攻击时效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建塔时的烟雾效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中火/冰/电/石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower5_1Smoke1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower5_1Bang_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower5_1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletStoneTower_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletLevinTower_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletIceTower_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletFireTower_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower51_1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower6_1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower6_2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower61_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower7_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower7_smoke_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower71_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower81_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower8_1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTowerSmoke_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastFire_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastFireLevin_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastFireStone_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastIceLevin_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastStone_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastGetAllSwamp_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastFireIce_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastGetAllLittle_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastStoneLevin_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastLevin_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastGetAll_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower51_2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathAit3_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathAit1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathAit2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem2HorisontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem2VerticalDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem3_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem3HorisontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem3VerticalDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlowIce_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcemanHorisontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcemanVerticalDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastIce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastIceStone_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失(原素材缺)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem1HorisontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem1VerticalDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSphereCont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法引出，根据使用再确定如何处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boneBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerSphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6354(对应原材料中的sphere1-4  6354)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画：塔被屏蔽效果：begin:开始 continue:持续屏蔽中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画： ?第11帧标签 a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片：被选中的效果图（png)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画： 关键层：1、towerCase：无对象用于计算 bullet 发射点
+2、selectTower  选中时出现，不选中置为不可用(getSlot("selectTower"):setVisible(false)
+3、TowerSphere：根据其位置和需要播放TowerSphere动画（setdisplay）
+4、blockTower：根据需要播放blockTower（setdisplay）
+5、boneBlock：根据其位置和需要播放boneBlock动画（setdisplay）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走(方向有问题，根据代码我再调整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4项选中攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选3项攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画： 塔上转动的sphere效果：通过sphere的sphere层进行换肤（换肤图片sphere1-sphere4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere手动攻击效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔上sphere自动攻击运动效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔上sphere选择填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTowerMenu_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔的初始化图片，原始为动图，先调整为基本的图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +1096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -741,12 +1132,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -787,6 +1215,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1328,7 +1777,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D3" sqref="D3:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1832,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2292,6 +2741,772 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A19:A36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="95.88671875" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2306,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>

--- a/Resources/素材说明.xlsx
+++ b/Resources/素材说明.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
     <sheet name="interface" sheetId="3" r:id="rId2"/>
     <sheet name="sphere" sheetId="5" r:id="rId3"/>
-    <sheet name="cast" sheetId="6" r:id="rId4"/>
-    <sheet name="tower" sheetId="7" r:id="rId5"/>
-    <sheet name="barinfo" sheetId="4" r:id="rId6"/>
-    <sheet name="public" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="cast" sheetId="6" r:id="rId5"/>
+    <sheet name="tower" sheetId="7" r:id="rId6"/>
+    <sheet name="barinfo" sheetId="4" r:id="rId7"/>
+    <sheet name="public" sheetId="2" r:id="rId8"/>
+    <sheet name="TowerMenu_mc" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="265">
   <si>
     <t>组成部份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,6 +1007,107 @@
   </si>
   <si>
     <t>塔的初始化图片，原始为动图，先调整为基本的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenu_mc_cont2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenu_mc_cont1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenu_mc_cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenu_mc_btnGetAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphereSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/Ice/Stone/LevinSphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5(pic):不可选，可用未解，可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnUpgradeMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnTowerUpgr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5级塔升级可选（4种状态）不可升级、可升无币、可升有币、可升有币（选中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnTowerUpgr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnTowerUpgr3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnTowerUpgr4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenu_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、前4级塔升级按钮(4种状态：)不可升级、可升无币、可升有币、可升有币（选中）
+2、4级塔之后购买按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltraTowerMenu_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充的4个Sphere动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级塔之后的升级等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4级塔的升级等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画：反复 11036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画：反复 11077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画:点击同时选中4个sphere 只有4个完整才可用，选中后可以出售，也可以直接手工进行放（补充后面策略）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1235,6 +1338,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2744,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3149,6 +3261,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3317,11 +3442,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3506,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3521,12 +3646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3700,4 +3825,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="100.33203125" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>